--- a/Tabla a Analizar Sesion 8.xlsx
+++ b/Tabla a Analizar Sesion 8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LABORATORIO 4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F52834-EA0E-419E-8C4D-DA1050DD5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78CF7C-8371-402F-AA46-901D950EBEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2770" windowWidth="19420" windowHeight="11020" xr2:uid="{19ED2778-E26E-46A5-A806-AF87F053A279}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19ED2778-E26E-46A5-A806-AF87F053A279}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
   <si>
     <t xml:space="preserve">Id_Cliente </t>
   </si>
@@ -130,6 +130,42 @@
   </si>
   <si>
     <t>f04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Managua </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esteli</t>
+  </si>
+  <si>
+    <t>2da sur. #27</t>
+  </si>
+  <si>
+    <t>8va. #56</t>
+  </si>
+  <si>
+    <t>7ma Norte. #36</t>
+  </si>
+  <si>
+    <t>10ma Este. #210</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Dep </t>
+  </si>
+  <si>
+    <t>Id_Dep</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id_Compra </t>
   </si>
 </sst>
 </file>
@@ -217,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -227,6 +263,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,19 +585,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5022-532B-498E-A443-FA1D729D8D6D}">
   <dimension ref="B2:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -604,7 +645,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -627,7 +668,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -650,7 +691,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -673,7 +714,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -696,7 +737,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -719,7 +760,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -742,7 +783,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -765,7 +806,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,19 +814,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>27</v>
@@ -794,7 +835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1</v>
       </c>
@@ -802,19 +843,19 @@
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
         <v>34204</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4">
-        <v>120</v>
+      <c r="I14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>28</v>
@@ -823,7 +864,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2</v>
       </c>
@@ -831,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="3">
         <v>36804</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4">
-        <v>55</v>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>29</v>
@@ -852,7 +893,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>3</v>
       </c>
@@ -860,19 +901,19 @@
         <v>16</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3">
         <v>31363</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="4">
-        <v>38</v>
+      <c r="I16" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>30</v>
@@ -881,7 +922,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>4</v>
       </c>
@@ -889,19 +930,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="3">
+        <v>38</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3">
         <v>30168</v>
-      </c>
-      <c r="G17" s="2">
-        <v>4</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4">
-        <v>45</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
@@ -910,141 +945,211 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="G18" s="2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="2">
-        <v>6</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2">
+        <v>5</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="2">
+        <v>6</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>7</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="C26" s="2">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>7</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2">
+        <v>7</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="4">
+      <c r="J26" s="4">
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>8</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="2">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="4">
+      <c r="J27" s="4">
         <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <v>3</v>
-      </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2">
-        <v>6</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2">
-        <v>8</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1053,18 +1158,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1212,18 +1317,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5363B8-21E8-43CD-90D3-BDE8A350CC94}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCEBB89-5CD0-4D1B-A445-4AD8729F3B26}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BCEBB89-5CD0-4D1B-A445-4AD8729F3B26}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5363B8-21E8-43CD-90D3-BDE8A350CC94}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Tabla a Analizar Sesion 8.xlsx
+++ b/Tabla a Analizar Sesion 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LABORATORIO 4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E78CF7C-8371-402F-AA46-901D950EBEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C9DB4A-BBD0-480E-BE27-AC4ECF37D904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19ED2778-E26E-46A5-A806-AF87F053A279}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t xml:space="preserve">Id_Cliente </t>
   </si>
@@ -117,21 +117,6 @@
     <t xml:space="preserve">Id_Producto </t>
   </si>
   <si>
-    <t xml:space="preserve">Id_fecha </t>
-  </si>
-  <si>
-    <t>f01</t>
-  </si>
-  <si>
-    <t>f02</t>
-  </si>
-  <si>
-    <t>f03</t>
-  </si>
-  <si>
-    <t>f04</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Managua </t>
   </si>
   <si>
@@ -166,15 +151,74 @@
   </si>
   <si>
     <t xml:space="preserve">Id_Compra </t>
+  </si>
+  <si>
+    <t>fecha_compra</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Seg_Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Herrera</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>Siles</t>
+  </si>
+  <si>
+    <t>Selva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos </t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Id_detalles</t>
+  </si>
+  <si>
+    <t>Id_compra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant_Producto </t>
+  </si>
+  <si>
+    <t>Precio_Final</t>
+  </si>
+  <si>
+    <t>PrecioxMayor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -249,11 +293,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,8 +313,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
@@ -583,23 +637,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5022-532B-498E-A443-FA1D729D8D6D}">
-  <dimension ref="B2:L27"/>
+  <dimension ref="B2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -645,7 +703,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -668,7 +726,7 @@
         <v>45293</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -691,7 +749,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -714,7 +772,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -737,7 +795,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -760,7 +818,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -783,7 +841,7 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -806,157 +864,154 @@
         <v>45303</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2">
+        <v>50</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>34204</v>
       </c>
-      <c r="H14" s="2">
+      <c r="J14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="K14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="3">
-        <v>45293</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2">
+        <v>51</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>36804</v>
       </c>
-      <c r="H15" s="2">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+      <c r="H16" s="3">
+        <v>31363</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="3">
-        <v>45299</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="3">
-        <v>31363</v>
-      </c>
-      <c r="H16" s="2">
-        <v>3</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="3">
-        <v>45301</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="3">
+        <v>30168</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E17" s="5">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3">
-        <v>30168</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="3">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>26</v>
@@ -967,19 +1022,19 @@
       <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>28</v>
+      <c r="D20" s="3">
+        <v>45293</v>
       </c>
       <c r="H20" s="2">
         <v>1</v>
@@ -990,19 +1045,19 @@
       <c r="J20" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>2</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>28</v>
+      <c r="D21" s="3">
+        <v>45293</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
@@ -1013,19 +1068,19 @@
       <c r="J21" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="2">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
+      <c r="D22" s="3">
+        <v>45299</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
@@ -1036,19 +1091,19 @@
       <c r="J22" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
+      <c r="D23" s="3">
+        <v>45299</v>
       </c>
       <c r="H23" s="2">
         <v>4</v>
@@ -1059,19 +1114,19 @@
       <c r="J23" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>5</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
-        <v>5</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>30</v>
+      <c r="D24" s="3">
+        <v>45301</v>
       </c>
       <c r="H24" s="2">
         <v>5</v>
@@ -1082,19 +1137,19 @@
       <c r="J24" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>31</v>
+      <c r="D25" s="3">
+        <v>45303</v>
       </c>
       <c r="H25" s="2">
         <v>6</v>
@@ -1105,19 +1160,19 @@
       <c r="J25" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>7</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
       </c>
-      <c r="D26" s="2">
-        <v>7</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>31</v>
+      <c r="D26" s="3">
+        <v>45303</v>
       </c>
       <c r="H26" s="2">
         <v>7</v>
@@ -1128,19 +1183,19 @@
       <c r="J26" s="4">
         <v>450</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>8</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
       </c>
-      <c r="D27" s="2">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>31</v>
+      <c r="D27" s="3">
+        <v>45303</v>
       </c>
       <c r="H27" s="2">
         <v>8</v>
@@ -1151,9 +1206,169 @@
       <c r="J27" s="4">
         <v>250</v>
       </c>
+      <c r="K27" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>23</v>
+      </c>
+      <c r="F31" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+      <c r="C33" s="8">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>4</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>5</v>
+      </c>
+      <c r="C35" s="9">
+        <v>5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>6</v>
+      </c>
+      <c r="C36" s="9">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7</v>
+      </c>
+      <c r="F36" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2">
+        <v>7</v>
+      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>8</v>
+      </c>
+      <c r="C38" s="9">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
